--- a/sd-correction-id_ext-rorpractitionerrolename/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
+++ b/sd-correction-id_ext-rorpractitionerrolename/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T10:20:36+00:00</t>
+    <t>2024-02-29T10:24:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
